--- a/plans/project.xlsx
+++ b/plans/project.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero\Documents\GitHub\docs\plans\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -253,24 +258,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -598,19 +611,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.33203125" customWidth="1"/>
-    <col min="3" max="35" width="2.33203125" style="1" customWidth="1"/>
-    <col min="36" max="57" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="35" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="44" width="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="55" width="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15" thickBot="1">
+    <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -774,7 +791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="15" thickBot="1">
+    <row r="2" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -782,7 +799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="15" thickBot="1">
+    <row r="3" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -793,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="15" thickBot="1">
+    <row r="4" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -810,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="15" thickBot="1">
+    <row r="5" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -833,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="15" thickBot="1">
+    <row r="6" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -844,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="15" thickBot="1">
+    <row r="7" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -861,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="15" thickBot="1">
+    <row r="8" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -878,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="15" thickBot="1">
+    <row r="9" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -895,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="15" thickBot="1">
+    <row r="10" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -914,7 +931,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:55" ht="15" thickBot="1">
+    <row r="11" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -937,7 +954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:55" ht="15" thickBot="1">
+    <row r="12" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -960,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:55" ht="15" thickBot="1">
+    <row r="13" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -977,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="15" thickBot="1">
+    <row r="14" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="15" thickBot="1">
+    <row r="15" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="15" thickBot="1">
+    <row r="16" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:55" ht="15" thickBot="1">
+    <row r="17" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1081,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:55" ht="15" thickBot="1">
+    <row r="18" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1165,7 +1182,7 @@
       </c>
       <c r="AS18" s="3"/>
     </row>
-    <row r="19" spans="1:55" ht="15" thickBot="1">
+    <row r="19" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:55" ht="15" thickBot="1">
+    <row r="20" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1232,7 +1249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:55" ht="15" thickBot="1">
+    <row r="21" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:55" ht="15" thickBot="1">
+    <row r="22" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1272,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:55" ht="15" thickBot="1">
+    <row r="23" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1301,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:55" ht="15" thickBot="1">
+    <row r="24" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:55" ht="15" thickBot="1">
+    <row r="25" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1404,7 +1421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:55" ht="15" thickBot="1">
+    <row r="26" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1412,14 +1429,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
